--- a/data/analysis/temporal_analysis/museum_activity_groups_var2_governance_simpl-country.xlsx
+++ b/data/analysis/temporal_analysis/museum_activity_groups_var2_governance_simpl-country.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>msg_count_twitter</t>
   </si>
@@ -22,6 +22,9 @@
     <t>msg_count_facebook</t>
   </si>
   <si>
+    <t>sum</t>
+  </si>
+  <si>
     <t>mean</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>count</t>
+  </si>
+  <si>
+    <t>msg_per_mus</t>
   </si>
   <si>
     <t>active_mus_n</t>
@@ -446,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:28">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -467,11 +473,11 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -480,8 +486,12 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:28">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -517,63 +527,75 @@
         <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="AA2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
         <v>1.6</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4.2</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
         <v>0</v>
       </c>
@@ -584,26 +606,26 @@
         <v>0</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>11</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>7</v>
       </c>
-      <c r="K4">
+      <c r="L4">
+        <v>1.6</v>
+      </c>
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>14.3</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>-1.6</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
       <c r="P4">
         <v>0</v>
       </c>
@@ -620,104 +642,128 @@
         <v>0</v>
       </c>
       <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>7</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:28">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5">
+        <v>1406895</v>
+      </c>
+      <c r="D5">
         <v>2548.7</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4438.9</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>63</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>907</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2632.5</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>28282</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>552</v>
       </c>
-      <c r="K5">
+      <c r="L5">
+        <v>2548.7</v>
+      </c>
+      <c r="M5">
         <v>439</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>79.5</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.9</v>
       </c>
-      <c r="N5">
+      <c r="P5">
+        <v>389188</v>
+      </c>
+      <c r="Q5">
         <v>705.1</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>1260.4</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>266.5</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>914</v>
       </c>
-      <c r="T5">
+      <c r="W5">
         <v>9506</v>
       </c>
-      <c r="U5">
+      <c r="X5">
         <v>552</v>
       </c>
-      <c r="V5">
+      <c r="Y5">
+        <v>705.1</v>
+      </c>
+      <c r="Z5">
         <v>297</v>
       </c>
-      <c r="W5">
+      <c r="AA5">
         <v>53.8</v>
       </c>
-      <c r="X5">
+      <c r="AB5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:28">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6">
+        <v>2065</v>
+      </c>
+      <c r="D6">
         <v>688.3</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1192.2</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
         <v>0</v>
       </c>
@@ -725,433 +771,505 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>1032.5</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2065</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="K6">
+      <c r="L6">
+        <v>688.3</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>33.3</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>-0.9</v>
       </c>
-      <c r="N6">
+      <c r="P6">
+        <v>683</v>
+      </c>
+      <c r="Q6">
         <v>227.7</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>394.3</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <v>341.5</v>
       </c>
-      <c r="T6">
+      <c r="W6">
         <v>683</v>
       </c>
-      <c r="U6">
+      <c r="X6">
         <v>3</v>
       </c>
-      <c r="V6">
+      <c r="Y6">
+        <v>227.7</v>
+      </c>
+      <c r="Z6">
         <v>1</v>
       </c>
-      <c r="W6">
+      <c r="AA6">
         <v>33.3</v>
       </c>
-      <c r="X6">
+      <c r="AB6">
         <v>-0</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:28">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7">
+        <v>101710</v>
+      </c>
+      <c r="D7">
         <v>2991.5</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>6418.5</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>21.5</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1560.5</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>25825</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>34</v>
       </c>
-      <c r="K7">
+      <c r="L7">
+        <v>2991.5</v>
+      </c>
+      <c r="M7">
         <v>18</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>52.9</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>-0.1</v>
       </c>
-      <c r="N7">
+      <c r="P7">
+        <v>34923</v>
+      </c>
+      <c r="Q7">
         <v>1027.1</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>2199.6</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
         <v>592.5</v>
       </c>
-      <c r="T7">
+      <c r="W7">
         <v>7467</v>
       </c>
-      <c r="U7">
+      <c r="X7">
         <v>34</v>
       </c>
-      <c r="V7">
+      <c r="Y7">
+        <v>1027.1</v>
+      </c>
+      <c r="Z7">
         <v>11</v>
       </c>
-      <c r="W7">
+      <c r="AA7">
         <v>32.4</v>
       </c>
-      <c r="X7">
+      <c r="AB7">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:28">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8">
+        <v>280868</v>
+      </c>
+      <c r="D8">
         <v>2065.2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>6585.1</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>38</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1811.5</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>69234</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>136</v>
       </c>
-      <c r="K8">
+      <c r="L8">
+        <v>2065.2</v>
+      </c>
+      <c r="M8">
         <v>72</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>52.9</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>-0.1</v>
       </c>
-      <c r="N8">
+      <c r="P8">
+        <v>55751</v>
+      </c>
+      <c r="Q8">
         <v>409.9</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>1132</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
         <v>107.2</v>
       </c>
-      <c r="T8">
+      <c r="W8">
         <v>9146</v>
       </c>
-      <c r="U8">
+      <c r="X8">
         <v>136</v>
       </c>
-      <c r="V8">
+      <c r="Y8">
+        <v>409.9</v>
+      </c>
+      <c r="Z8">
         <v>39</v>
       </c>
-      <c r="W8">
+      <c r="AA8">
         <v>28.7</v>
       </c>
-      <c r="X8">
+      <c r="AB8">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:28">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9">
+        <v>215697</v>
+      </c>
+      <c r="D9">
         <v>3423.8</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>6874.6</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>1045</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2944</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>30943</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>63</v>
       </c>
-      <c r="K9">
+      <c r="L9">
+        <v>3423.8</v>
+      </c>
+      <c r="M9">
         <v>46</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>73</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0.6</v>
       </c>
-      <c r="N9">
+      <c r="P9">
+        <v>81537</v>
+      </c>
+      <c r="Q9">
         <v>1294.2</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>2658</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>117</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>1275.5</v>
       </c>
-      <c r="T9">
+      <c r="W9">
         <v>13584</v>
       </c>
-      <c r="U9">
+      <c r="X9">
         <v>63</v>
       </c>
-      <c r="V9">
+      <c r="Y9">
+        <v>1294.2</v>
+      </c>
+      <c r="Z9">
         <v>33</v>
       </c>
-      <c r="W9">
+      <c r="AA9">
         <v>52.4</v>
       </c>
-      <c r="X9">
+      <c r="AB9">
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:28">
       <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>1806</v>
+      </c>
+      <c r="D10">
+        <v>112.9</v>
+      </c>
+      <c r="E10">
+        <v>425.1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1704</v>
+      </c>
+      <c r="K10">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
+      <c r="L10">
         <v>112.9</v>
       </c>
-      <c r="D10">
-        <v>425.1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1704</v>
-      </c>
-      <c r="J10">
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>12.5</v>
+      </c>
+      <c r="O10">
+        <v>-1.7</v>
+      </c>
+      <c r="P10">
+        <v>859</v>
+      </c>
+      <c r="Q10">
+        <v>53.7</v>
+      </c>
+      <c r="R10">
+        <v>164.3</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>632</v>
+      </c>
+      <c r="X10">
         <v>16</v>
       </c>
-      <c r="K10">
+      <c r="Y10">
+        <v>53.7</v>
+      </c>
+      <c r="Z10">
         <v>2</v>
       </c>
-      <c r="L10">
+      <c r="AA10">
         <v>12.5</v>
       </c>
-      <c r="M10">
-        <v>-1.7</v>
-      </c>
-      <c r="N10">
-        <v>53.7</v>
-      </c>
-      <c r="O10">
-        <v>164.3</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>632</v>
-      </c>
-      <c r="U10">
-        <v>16</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
-      <c r="W10">
-        <v>12.5</v>
-      </c>
-      <c r="X10">
+      <c r="AB10">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:28">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11">
+        <v>2667711</v>
+      </c>
+      <c r="D11">
         <v>1438.1</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4939</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>126</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>920</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>75337</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1855</v>
       </c>
-      <c r="K11">
+      <c r="L11">
+        <v>1438.1</v>
+      </c>
+      <c r="M11">
         <v>1215</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>65.5</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>0.3</v>
       </c>
-      <c r="N11">
+      <c r="P11">
+        <v>637395</v>
+      </c>
+      <c r="Q11">
         <v>343.6</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>1474.3</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>336.5</v>
       </c>
-      <c r="T11">
+      <c r="W11">
         <v>37660</v>
       </c>
-      <c r="U11">
+      <c r="X11">
         <v>1855</v>
       </c>
-      <c r="V11">
+      <c r="Y11">
+        <v>343.6</v>
+      </c>
+      <c r="Z11">
         <v>638</v>
       </c>
-      <c r="W11">
+      <c r="AA11">
         <v>34.4</v>
       </c>
-      <c r="X11">
+      <c r="AB11">
         <v>-0</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:28">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12">
+        <v>71323</v>
+      </c>
+      <c r="D12">
         <v>5943.6</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>19909.5</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
         <v>0</v>
       </c>
@@ -1159,29 +1277,29 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>33.8</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>69137</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>12</v>
       </c>
-      <c r="K12">
+      <c r="L12">
+        <v>5943.6</v>
+      </c>
+      <c r="M12">
         <v>4</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>33.3</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>-0.9</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
       <c r="P12">
         <v>0</v>
       </c>
@@ -1198,317 +1316,377 @@
         <v>0</v>
       </c>
       <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
         <v>12</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:28">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>76687</v>
+      </c>
+      <c r="D13">
+        <v>1446.9</v>
+      </c>
+      <c r="E13">
+        <v>4371.6</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>67</v>
+      </c>
+      <c r="I13">
+        <v>870</v>
+      </c>
+      <c r="J13">
+        <v>25234</v>
+      </c>
+      <c r="K13">
+        <v>53</v>
+      </c>
+      <c r="L13">
+        <v>1446.9</v>
+      </c>
+      <c r="M13">
+        <v>34</v>
+      </c>
+      <c r="N13">
+        <v>64.2</v>
+      </c>
+      <c r="O13">
+        <v>0.3</v>
+      </c>
+      <c r="P13">
+        <v>23376</v>
+      </c>
+      <c r="Q13">
+        <v>441.1</v>
+      </c>
+      <c r="R13">
+        <v>1121.9</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>572</v>
+      </c>
+      <c r="W13">
+        <v>7684</v>
+      </c>
+      <c r="X13">
+        <v>53</v>
+      </c>
+      <c r="Y13">
+        <v>441.1</v>
+      </c>
+      <c r="Z13">
         <v>22</v>
       </c>
-      <c r="C13">
-        <v>1446.9</v>
-      </c>
-      <c r="D13">
-        <v>4371.6</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>67</v>
-      </c>
-      <c r="H13">
-        <v>870</v>
-      </c>
-      <c r="I13">
-        <v>25234</v>
-      </c>
-      <c r="J13">
-        <v>53</v>
-      </c>
-      <c r="K13">
-        <v>34</v>
-      </c>
-      <c r="L13">
-        <v>64.2</v>
-      </c>
-      <c r="M13">
+      <c r="AA13">
+        <v>41.5</v>
+      </c>
+      <c r="AB13">
         <v>0.3</v>
       </c>
-      <c r="N13">
-        <v>441.1</v>
-      </c>
-      <c r="O13">
-        <v>1121.9</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>572</v>
-      </c>
-      <c r="T13">
-        <v>7684</v>
-      </c>
-      <c r="U13">
-        <v>53</v>
-      </c>
-      <c r="V13">
-        <v>22</v>
-      </c>
-      <c r="W13">
-        <v>41.5</v>
-      </c>
-      <c r="X13">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:28">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14">
+        <v>271392</v>
+      </c>
+      <c r="D14">
         <v>819.9</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>3786</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>18</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>518</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>57312</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>331</v>
       </c>
-      <c r="K14">
+      <c r="L14">
+        <v>819.9</v>
+      </c>
+      <c r="M14">
         <v>184</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>55.6</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>-0</v>
       </c>
-      <c r="N14">
+      <c r="P14">
+        <v>115194</v>
+      </c>
+      <c r="Q14">
         <v>348</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <v>2190.9</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
       <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
         <v>64</v>
       </c>
-      <c r="T14">
+      <c r="W14">
         <v>37563</v>
       </c>
-      <c r="U14">
+      <c r="X14">
         <v>331</v>
       </c>
-      <c r="V14">
+      <c r="Y14">
+        <v>348</v>
+      </c>
+      <c r="Z14">
         <v>85</v>
       </c>
-      <c r="W14">
+      <c r="AA14">
         <v>25.7</v>
       </c>
-      <c r="X14">
+      <c r="AB14">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:28">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15">
+        <v>93727</v>
+      </c>
+      <c r="D15">
         <v>721</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2379.7</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>33</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>527.5</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>19830</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>130</v>
       </c>
-      <c r="K15">
+      <c r="L15">
+        <v>721</v>
+      </c>
+      <c r="M15">
         <v>80</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>61.5</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>0.2</v>
       </c>
-      <c r="N15">
+      <c r="P15">
+        <v>59490</v>
+      </c>
+      <c r="Q15">
         <v>457.6</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <v>1636.5</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
         <v>304</v>
       </c>
-      <c r="T15">
+      <c r="W15">
         <v>13071</v>
       </c>
-      <c r="U15">
+      <c r="X15">
         <v>130</v>
       </c>
-      <c r="V15">
+      <c r="Y15">
+        <v>457.6</v>
+      </c>
+      <c r="Z15">
         <v>53</v>
       </c>
-      <c r="W15">
+      <c r="AA15">
         <v>40.8</v>
       </c>
-      <c r="X15">
+      <c r="AB15">
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:28">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16">
+        <v>250122</v>
+      </c>
+      <c r="D16">
         <v>3908.2</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>8259</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>449.5</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1917</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>4368.5</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>60677</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>64</v>
       </c>
-      <c r="K16">
+      <c r="L16">
+        <v>3908.2</v>
+      </c>
+      <c r="M16">
         <v>57</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>89.09999999999999</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>1.2</v>
       </c>
-      <c r="N16">
+      <c r="P16">
+        <v>35791</v>
+      </c>
+      <c r="Q16">
         <v>559.2</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <v>578.4</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <v>508</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>942</v>
       </c>
-      <c r="T16">
+      <c r="W16">
         <v>1991</v>
       </c>
-      <c r="U16">
+      <c r="X16">
         <v>64</v>
       </c>
-      <c r="V16">
+      <c r="Y16">
+        <v>559.2</v>
+      </c>
+      <c r="Z16">
         <v>39</v>
       </c>
-      <c r="W16">
+      <c r="AA16">
         <v>60.9</v>
       </c>
-      <c r="X16">
+      <c r="AB16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:28">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>591</v>
       </c>
-      <c r="E17">
+      <c r="D17">
         <v>591</v>
       </c>
       <c r="F17">
@@ -1524,19 +1702,22 @@
         <v>591</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>591</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
+        <v>591</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>100</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>1.7</v>
-      </c>
-      <c r="N17">
-        <v>804</v>
       </c>
       <c r="P17">
         <v>804</v>
@@ -1544,9 +1725,6 @@
       <c r="Q17">
         <v>804</v>
       </c>
-      <c r="R17">
-        <v>804</v>
-      </c>
       <c r="S17">
         <v>804</v>
       </c>
@@ -1554,173 +1732,209 @@
         <v>804</v>
       </c>
       <c r="U17">
+        <v>804</v>
+      </c>
+      <c r="V17">
+        <v>804</v>
+      </c>
+      <c r="W17">
+        <v>804</v>
+      </c>
+      <c r="X17">
         <v>1</v>
       </c>
-      <c r="V17">
+      <c r="Y17">
+        <v>804</v>
+      </c>
+      <c r="Z17">
         <v>1</v>
       </c>
-      <c r="W17">
+      <c r="AA17">
         <v>100</v>
       </c>
-      <c r="X17">
+      <c r="AB17">
         <v>2.6</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:28">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18">
+        <v>99581</v>
+      </c>
+      <c r="D18">
         <v>4526.4</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>6052.5</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
       <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>426</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2644</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>4080.8</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>18739</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>22</v>
       </c>
-      <c r="K18">
+      <c r="L18">
+        <v>4526.4</v>
+      </c>
+      <c r="M18">
         <v>17</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>77.3</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>0.8</v>
       </c>
-      <c r="N18">
+      <c r="P18">
+        <v>17657</v>
+      </c>
+      <c r="Q18">
         <v>802.6</v>
       </c>
-      <c r="O18">
+      <c r="R18">
         <v>1346.6</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
         <v>95</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1325.5</v>
       </c>
-      <c r="T18">
+      <c r="W18">
         <v>5435</v>
       </c>
-      <c r="U18">
+      <c r="X18">
         <v>22</v>
       </c>
-      <c r="V18">
+      <c r="Y18">
+        <v>802.6</v>
+      </c>
+      <c r="Z18">
         <v>11</v>
       </c>
-      <c r="W18">
+      <c r="AA18">
         <v>50</v>
       </c>
-      <c r="X18">
+      <c r="AB18">
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:28">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19">
+        <v>12630</v>
+      </c>
+      <c r="D19">
         <v>2526</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>2777.5</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
       <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>226</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1612</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>4427</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>6365</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>5</v>
       </c>
-      <c r="K19">
+      <c r="L19">
+        <v>2526</v>
+      </c>
+      <c r="M19">
         <v>4</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>80</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>0.9</v>
       </c>
-      <c r="N19">
+      <c r="P19">
+        <v>3113</v>
+      </c>
+      <c r="Q19">
         <v>622.6</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>634.7</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
         <v>680</v>
       </c>
-      <c r="S19">
+      <c r="V19">
         <v>964</v>
       </c>
-      <c r="T19">
+      <c r="W19">
         <v>1469</v>
       </c>
-      <c r="U19">
+      <c r="X19">
         <v>5</v>
       </c>
-      <c r="V19">
+      <c r="Y19">
+        <v>622.6</v>
+      </c>
+      <c r="Z19">
         <v>3</v>
       </c>
-      <c r="W19">
+      <c r="AA19">
         <v>60</v>
       </c>
-      <c r="X19">
+      <c r="AB19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:28">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>219</v>
       </c>
-      <c r="E20">
+      <c r="D20">
         <v>219</v>
       </c>
       <c r="F20">
@@ -1736,29 +1950,29 @@
         <v>219</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
+        <v>219</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
         <v>100</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>1.7</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
       <c r="S20">
         <v>0</v>
       </c>
@@ -1766,32 +1980,44 @@
         <v>0</v>
       </c>
       <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
         <v>1</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:28">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21">
+        <v>53373</v>
+      </c>
+      <c r="D21">
         <v>1569.8</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>4846.3</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
       <c r="F21">
         <v>0</v>
       </c>
@@ -1799,71 +2025,83 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>452.5</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>26305</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>34</v>
       </c>
-      <c r="K21">
+      <c r="L21">
+        <v>1569.8</v>
+      </c>
+      <c r="M21">
         <v>16</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>47.1</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>-0.4</v>
       </c>
-      <c r="N21">
+      <c r="P21">
+        <v>9361</v>
+      </c>
+      <c r="Q21">
         <v>275.3</v>
       </c>
-      <c r="O21">
+      <c r="R21">
         <v>840.6</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
         <v>4440</v>
       </c>
-      <c r="U21">
+      <c r="X21">
         <v>34</v>
       </c>
-      <c r="V21">
+      <c r="Y21">
+        <v>275.3</v>
+      </c>
+      <c r="Z21">
         <v>8</v>
       </c>
-      <c r="W21">
+      <c r="AA21">
         <v>23.5</v>
       </c>
-      <c r="X21">
+      <c r="AB21">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:28">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C22">
+        <v>5344</v>
+      </c>
+      <c r="D22">
         <v>890.7</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2136</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
       <c r="F22">
         <v>0</v>
       </c>
@@ -1871,29 +2109,29 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>70.5</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>5250</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>6</v>
       </c>
-      <c r="K22">
+      <c r="L22">
+        <v>890.7</v>
+      </c>
+      <c r="M22">
         <v>2</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>33.3</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>-0.9</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
       <c r="P22">
         <v>0</v>
       </c>
@@ -1910,32 +2148,44 @@
         <v>0</v>
       </c>
       <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
         <v>6</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:28">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C23">
+        <v>418</v>
+      </c>
+      <c r="D23">
         <v>83.59999999999999</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>186.9</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
@@ -1946,68 +2196,80 @@
         <v>0</v>
       </c>
       <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>418</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>5</v>
       </c>
-      <c r="K23">
+      <c r="L23">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="M23">
         <v>1</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>20</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>-1.4</v>
       </c>
-      <c r="N23">
+      <c r="P23">
+        <v>152</v>
+      </c>
+      <c r="Q23">
         <v>30.4</v>
       </c>
-      <c r="O23">
+      <c r="R23">
         <v>68</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
         <v>152</v>
       </c>
-      <c r="U23">
+      <c r="X23">
         <v>5</v>
       </c>
-      <c r="V23">
+      <c r="Y23">
+        <v>30.4</v>
+      </c>
+      <c r="Z23">
         <v>1</v>
       </c>
-      <c r="W23">
+      <c r="AA23">
         <v>20</v>
       </c>
-      <c r="X23">
+      <c r="AB23">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:28">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C24">
+        <v>1457</v>
+      </c>
+      <c r="D24">
         <v>161.9</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>331.2</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
@@ -2015,61 +2277,73 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>98</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>981</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>9</v>
       </c>
-      <c r="K24">
+      <c r="L24">
+        <v>161.9</v>
+      </c>
+      <c r="M24">
         <v>4</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>44.4</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>-0.5</v>
       </c>
-      <c r="N24">
+      <c r="P24">
+        <v>2318</v>
+      </c>
+      <c r="Q24">
         <v>257.6</v>
       </c>
-      <c r="O24">
+      <c r="R24">
         <v>341.8</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>155</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>318</v>
       </c>
-      <c r="T24">
+      <c r="W24">
         <v>994</v>
       </c>
-      <c r="U24">
+      <c r="X24">
         <v>9</v>
       </c>
-      <c r="V24">
+      <c r="Y24">
+        <v>257.6</v>
+      </c>
+      <c r="Z24">
         <v>5</v>
       </c>
-      <c r="W24">
+      <c r="AA24">
         <v>55.6</v>
       </c>
-      <c r="X24">
+      <c r="AB24">
         <v>0.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="N1:X1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="P1:AB1"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A19"/>
